--- a/sentimentos2c44.xlsx
+++ b/sentimentos2c44.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{18611CF1-6D39-49F2-8035-CB85A52D8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B7F22E-4656-4D57-AAF4-88BB3CF08E3D}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{18611CF1-6D39-49F2-8035-CB85A52D8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1A16B1-3A09-4DAA-9EBF-37A74CCF65C2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1965">
   <si>
     <t>frase</t>
   </si>
@@ -3411,6 +3411,2529 @@
   </si>
   <si>
     <t>Hoje senti vontade de celebrar pequenas vitórias.</t>
+  </si>
+  <si>
+    <t>Hoje acordei com um entusiasmo que não cabia em mim.</t>
+  </si>
+  <si>
+    <t>Senti uma alegria tão leve que parecia flutuar.</t>
+  </si>
+  <si>
+    <t>Hoje tudo brilhou de um jeito especial.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante com as pequenas surpresas do dia.</t>
+  </si>
+  <si>
+    <t>Hoje meu coração transbordou de gratidão.</t>
+  </si>
+  <si>
+    <t>Senti uma felicidade tranquila tomando conta de mim.</t>
+  </si>
+  <si>
+    <t>Hoje minha alma parecia sorrir.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com a energia positiva que o dia trouxe.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma vontade enorme de celebrar a vida.</t>
+  </si>
+  <si>
+    <t>Meu sorriso foi espontâneo do começo ao fim do dia.</t>
+  </si>
+  <si>
+    <t>Hoje percebi beleza em tudo ao meu redor.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por estar rodeado de boas pessoas.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma esperança alegre dentro de mim.</t>
+  </si>
+  <si>
+    <t>Meu dia foi iluminado por gestos de carinho.</t>
+  </si>
+  <si>
+    <t>Hoje me senti inspirado e cheio de boas ideias.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante com pequenos momentos de paz.</t>
+  </si>
+  <si>
+    <t>Hoje a vida pareceu completamente leve.</t>
+  </si>
+  <si>
+    <t>Senti alegria só por ver o sol nascer.</t>
+  </si>
+  <si>
+    <t>Hoje tudo correu melhor do que eu esperava.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com cada detalhe que deu certo.</t>
+  </si>
+  <si>
+    <t>Hoje meu humor esteve nas alturas.</t>
+  </si>
+  <si>
+    <t>Senti uma vibração positiva desde o amanhecer.</t>
+  </si>
+  <si>
+    <t>Hoje sorri por coisas tão simples que até me surpreendi.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com novos planos.</t>
+  </si>
+  <si>
+    <t>Hoje a felicidade veio sem aviso.</t>
+  </si>
+  <si>
+    <t>Senti um calor no coração que me renovou.</t>
+  </si>
+  <si>
+    <t>Hoje percebi o quanto sou grato pelas pequenas conquistas.</t>
+  </si>
+  <si>
+    <t>Fiquei alegre ao passar tempo com quem amo.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei alegria em momentos inesperados.</t>
+  </si>
+  <si>
+    <t>Senti uma leveza que me acompanhou o dia inteiro.</t>
+  </si>
+  <si>
+    <t>Hoje me senti cheio de entusiasmo para tudo.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao ver meu progresso pessoal.</t>
+  </si>
+  <si>
+    <t>Hoje cada pequena vitória me fez sorrir.</t>
+  </si>
+  <si>
+    <t>Senti uma energia contagiante ao longo do dia.</t>
+  </si>
+  <si>
+    <t>Hoje tudo pareceu se encaixar perfeitamente.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao receber boas notícias.</t>
+  </si>
+  <si>
+    <t>Hoje experimentei uma felicidade genuína.</t>
+  </si>
+  <si>
+    <t>Meu dia foi iluminado por boas conversas.</t>
+  </si>
+  <si>
+    <t>Hoje senti a alegria correr solta dentro de mim.</t>
+  </si>
+  <si>
+    <t>Fiquei grato por cada momento precioso.</t>
+  </si>
+  <si>
+    <t>Hoje acordei com vontade de viver coisas novas.</t>
+  </si>
+  <si>
+    <t>Senti felicidade ao ver pessoas queridas sorrirem.</t>
+  </si>
+  <si>
+    <t>Hoje a vida me surpreendeu de uma forma boa.</t>
+  </si>
+  <si>
+    <t>Fiquei alegre ao concluir tarefas importantes.</t>
+  </si>
+  <si>
+    <t>Hoje percebi quantas coisas boas me cercam.</t>
+  </si>
+  <si>
+    <t>Senti um entusiasmo tão grande que transbordou.</t>
+  </si>
+  <si>
+    <t>Hoje fui presenteado com momentos especiais.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao aprender algo novo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que tudo estava fluindo bem.</t>
+  </si>
+  <si>
+    <t>Senti uma felicidade leve apenas por estar vivo.</t>
+  </si>
+  <si>
+    <t>Hoje a alegria me encontrou logo cedo.</t>
+  </si>
+  <si>
+    <t>Fiquei cheio de boas energias durante o dia.</t>
+  </si>
+  <si>
+    <t>Hoje sorrir foi fácil demais.</t>
+  </si>
+  <si>
+    <t>Senti uma vibração tão boa que nada me abalou.</t>
+  </si>
+  <si>
+    <t>Hoje me senti renovado por dentro.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com as pequenas demonstrações de afeto.</t>
+  </si>
+  <si>
+    <t>Hoje tive vontade de compartilhar alegria.</t>
+  </si>
+  <si>
+    <t>Senti uma gratidão que trouxe paz.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia foi cheio de boas surpresas.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante por ver meus esforços funcionando.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei alegria até nos momentos calmos.</t>
+  </si>
+  <si>
+    <t>Senti minha alma dançar de felicidade.</t>
+  </si>
+  <si>
+    <t>Hoje cada instante pareceu especial.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com as boas possibilidades que surgiram.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu coração pulsar alegria.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por ver tudo caminhar bem.</t>
+  </si>
+  <si>
+    <t>Hoje acordei sorrindo e continuei assim o dia todo.</t>
+  </si>
+  <si>
+    <t>Senti uma felicidade doce ao longo do dia.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que minha vida está cheia de motivos para sorrir.</t>
+  </si>
+  <si>
+    <t>Fiquei encantado com a simplicidade de momentos felizes.</t>
+  </si>
+  <si>
+    <t>Hoje me senti abraçado pela positividade.</t>
+  </si>
+  <si>
+    <t>Senti alegria pura ao ouvir boas notícias.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia brilhou com pequenas conquistas.</t>
+  </si>
+  <si>
+    <t>Fiquei cheio de motivação para realizar meus planos.</t>
+  </si>
+  <si>
+    <t>Hoje senti que nada poderia estragar meu humor.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao notar meu crescimento pessoal.</t>
+  </si>
+  <si>
+    <t>Hoje tudo parecia leve e agradável.</t>
+  </si>
+  <si>
+    <t>Senti alegria em cada conversa que tive.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei animado ao ver meus sonhos avançando.</t>
+  </si>
+  <si>
+    <t>Senti vontade de compartilhar minha felicidade com o mundo.</t>
+  </si>
+  <si>
+    <t>Hoje estive cercado de boas vibrações.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que a vida está me levando a bons caminhos.</t>
+  </si>
+  <si>
+    <t>Senti alegria simplesmente por estar presente.</t>
+  </si>
+  <si>
+    <t>Hoje meu coração se encheu de boas emoções.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao concluir o que parecia impossível.</t>
+  </si>
+  <si>
+    <t>Hoje recebi palavras que iluminaram meu dia.</t>
+  </si>
+  <si>
+    <t>Senti alegria ao perceber o quanto evoluí.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei motivos para sorrir em cada canto.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao experimentar algo novo.</t>
+  </si>
+  <si>
+    <t>Hoje a felicidade se manifestou nos detalhes.</t>
+  </si>
+  <si>
+    <t>Senti uma alegria espontânea brotar em mim.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia começou colorido.</t>
+  </si>
+  <si>
+    <t>Fiquei contente com a generosidade que recebi.</t>
+  </si>
+  <si>
+    <t>Hoje senti que vivi plenamente.</t>
+  </si>
+  <si>
+    <t>Senti a alegria vibrar forte no peito.</t>
+  </si>
+  <si>
+    <t>Hoje tudo que fiz me trouxe bons sentimentos.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao realizar pequenas tarefas com sucesso.</t>
+  </si>
+  <si>
+    <t>Hoje me senti leve como o vento.</t>
+  </si>
+  <si>
+    <t>Senti paz e alegria caminhando juntas.</t>
+  </si>
+  <si>
+    <t>Hoje meus sorrisos foram verdadeiros.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao ver o céu tão bonito.</t>
+  </si>
+  <si>
+    <t>Hoje fui surpreendido por boas lembranças.</t>
+  </si>
+  <si>
+    <t>Senti alegria ao conversar com alguém especial.</t>
+  </si>
+  <si>
+    <t>Hoje percebi o quanto sou rodeado de coisas boas.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com a simplicidade do meu dia.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma alegria forte sem motivo aparente.</t>
+  </si>
+  <si>
+    <t>Senti que tudo estava alinhado ao meu favor.</t>
+  </si>
+  <si>
+    <t>Hoje meu coração esteve em festa.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao receber carinho inesperado.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a bondade esteve presente em todo lugar.</t>
+  </si>
+  <si>
+    <t>Senti uma felicidade tranquila me guiando.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei alegria nas pequenas pausas do dia.</t>
+  </si>
+  <si>
+    <t>Fiquei grato por todos os momentos de luz.</t>
+  </si>
+  <si>
+    <t>Hoje senti que minha vida está cheia de promessas boas.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao planejar o futuro.</t>
+  </si>
+  <si>
+    <t>Hoje a alegria nasceu em mim logo cedo.</t>
+  </si>
+  <si>
+    <t>Senti-me renovado e cheio de esperança.</t>
+  </si>
+  <si>
+    <t>Hoje me senti abençoado por tudo que tenho.</t>
+  </si>
+  <si>
+    <t>Fiquei encantado com algo simples, mas especial.</t>
+  </si>
+  <si>
+    <t>Hoje recebi boas vibrações de todos os lados.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao reencontrar minha motivação.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria até no meu silêncio.</t>
+  </si>
+  <si>
+    <t>Senti meu coração bater de felicidade.</t>
+  </si>
+  <si>
+    <t>Hoje vivi momentos que me fizeram sorrir sem querer.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com novas descobertas.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei motivos para agradecer o dia inteiro.</t>
+  </si>
+  <si>
+    <t>Senti uma energia tão boa que me fez cantar.</t>
+  </si>
+  <si>
+    <t>Hoje a alegria esteve presente em cada detalhe.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao perceber conquistas que nem notei antes.</t>
+  </si>
+  <si>
+    <t>Hoje me senti completo e contente.</t>
+  </si>
+  <si>
+    <t>Senti alegria ao ver o esforço de outras pessoas brilhando.</t>
+  </si>
+  <si>
+    <t>Hoje minhas emoções foram tomadas por positividade.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com conversas que me inspiraram.</t>
+  </si>
+  <si>
+    <t>Hoje senti que sou mais forte do que imaginava.</t>
+  </si>
+  <si>
+    <t>Fiquei cheio de alegria ao sentir orgulho de mim mesmo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que o mundo estava ao meu favor.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por estar em paz.</t>
+  </si>
+  <si>
+    <t>Hoje a felicidade veio de forma suave.</t>
+  </si>
+  <si>
+    <t>Senti alegria ao revisitar boas memórias.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que posso ser muito feliz.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao receber gestos de gentileza.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma alegria fresca, como um novo começo.</t>
+  </si>
+  <si>
+    <t>Fiquei animado por estar cercado de boas pessoas.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meu corpo estava cheio de energia positiva.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com mensagens carinhosas.</t>
+  </si>
+  <si>
+    <t>Hoje a alegria tomou conta da minha rotina.</t>
+  </si>
+  <si>
+    <t>Senti uma gratidão enorme por estar vivendo este momento.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia foi cheio de motivos para sorrir.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com cada oportunidade que surgiu.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria ao estar presente com quem amo.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por ver que estou evoluindo diariamente.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meu coração estava leve como nunca.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao perceber que o dia seria ótimo.</t>
+  </si>
+  <si>
+    <t>Hoje vi beleza até em coisas que antes não notava.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao sentir uma onda de felicidade repentina.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria desde o primeiro instante.</t>
+  </si>
+  <si>
+    <t>Fiquei encantado com o que o universo me trouxe.</t>
+  </si>
+  <si>
+    <t>Hoje recebi boas notícias que iluminaram meu sorriso.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por ter tempo para mim mesmo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a chance de ser feliz está sempre comigo.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao ver meu esforço sendo reconhecido.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei paz e alegria no mesmo lugar.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao descobrir novas possibilidades.</t>
+  </si>
+  <si>
+    <t>Hoje senti minha inspiração florescer.</t>
+  </si>
+  <si>
+    <t>Fiquei alegre ao perceber que tudo está melhorando.</t>
+  </si>
+  <si>
+    <t>Hoje sorri ao ver o quanto sou capaz.</t>
+  </si>
+  <si>
+    <t>Fiquei grato pela leveza do meu dia.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma alegria que vinha do fundo da alma.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao compartilhar bons momentos.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia foi cheio de cores e boas sensações.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao sentir orgulho das minhas conquistas.</t>
+  </si>
+  <si>
+    <t>Hoje vivi pequenas alegrias que fizeram toda a diferença.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com o carinho recebido.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria ao completar mais uma etapa da vida.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao planejar novos caminhos.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que ser feliz é mais simples do que parece.</t>
+  </si>
+  <si>
+    <t>Fiquei encantado com a positividade ao meu redor.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu espírito renovado.</t>
+  </si>
+  <si>
+    <t>Fiquei contente por tudo ter dado certo.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria verdadeira, sem esforço.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao perceber o quanto cresci.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de celebrar cada instante.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com boas ideias que surgiram.</t>
+  </si>
+  <si>
+    <t>Hoje fui surpreendido com momentos leves.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao ver pessoas queridas brilhando.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria por simplesmente existir.</t>
+  </si>
+  <si>
+    <t>Fiquei grato por cada gesto de bondade que recebi.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei felicidade até nos meus pensamentos.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao realizar sonhos antigos.</t>
+  </si>
+  <si>
+    <t>Hoje meu dia foi puro brilho.</t>
+  </si>
+  <si>
+    <t>Fiquei alegre ao ver o sol iluminar meu caminho.</t>
+  </si>
+  <si>
+    <t>Hoje senti um entusiasmo que me impulsionou.</t>
+  </si>
+  <si>
+    <t>Fiquei grato ao sentir paz no meu coração.</t>
+  </si>
+  <si>
+    <t>Hoje vivi um dia cheio de sorrisos sinceros.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante com as novas oportunidades que surgiram.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria em cada passo que dei.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao perceber minha força interior.</t>
+  </si>
+  <si>
+    <t>Hoje encontrei felicidade nos detalhes mais simples.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz ao compartilhar boas histórias.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu coração vibrar positivamente.</t>
+  </si>
+  <si>
+    <t>Fiquei grato por estar exatamente onde estou.</t>
+  </si>
+  <si>
+    <t>Hoje a felicidade me acompanhou o dia inteiro.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com cada surpresa boa que recebi.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria ao ver o quanto evoluí.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz por tudo ter fluído tão bem.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu corpo leve de tanta alegria.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao perceber que minha vida está no caminho certo.</t>
+  </si>
+  <si>
+    <t>Hoje me senti inspirado por tudo ao meu redor.</t>
+  </si>
+  <si>
+    <t>Fiquei animado com novos desafios que posso vencer.</t>
+  </si>
+  <si>
+    <t>Hoje senti alegria por saber que fiz o meu melhor.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com a simplicidade de um bom dia.</t>
+  </si>
+  <si>
+    <t>Hoje meu sorriso refletiu tudo de bom que senti.</t>
+  </si>
+  <si>
+    <t>Fiquei radiante ao ver que minhas expectativas foram superadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma felicidade tão grande que mal pude expressar.</t>
+  </si>
+  <si>
+    <t>Fiquei agradecido por todos os momentos alegres que vivi.</t>
+  </si>
+  <si>
+    <t>Hoje a alegria me encontrou em cada esquina.</t>
+  </si>
+  <si>
+    <t>Fiquei cheio de boas energias que fizeram meu dia brilhar.</t>
+  </si>
+  <si>
+    <t>Hoje senti felicidade até nas coisas mais pequenas.</t>
+  </si>
+  <si>
+    <t>Fiquei animado ao perceber que estou no caminho da felicidade.</t>
+  </si>
+  <si>
+    <t>Hoje vivi um dia repleto de luz e boas emoções.</t>
+  </si>
+  <si>
+    <t>Fiquei feliz com tudo que pude vivenciar hoje.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma alegria que preencheu meu coração.</t>
+  </si>
+  <si>
+    <t>Hoje senti um medo estranho logo ao acordar.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou sem que eu soubesse o motivo.</t>
+  </si>
+  <si>
+    <t>Senti uma inquietação que tomou conta de mim.</t>
+  </si>
+  <si>
+    <t>Hoje o silêncio doeu como se fosse um aviso.</t>
+  </si>
+  <si>
+    <t>Tive receio de que algo pudesse dar errado.</t>
+  </si>
+  <si>
+    <t>Hoje senti meus pensamentos ficarem mais sombrios.</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo ao enfrentar situações comuns.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo até de coisas que normalmente me acalmam.</t>
+  </si>
+  <si>
+    <t>Meu corpo ficou tenso ao menor sinal de mudança.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de não conseguir lidar com o dia.</t>
+  </si>
+  <si>
+    <t>Senti um arrepio que me deixou alerta.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer barulho me assustou.</t>
+  </si>
+  <si>
+    <t>Senti que precisava tomar cuidado com tudo.</t>
+  </si>
+  <si>
+    <t>Hoje meu coração ficou acelerado sem explicação.</t>
+  </si>
+  <si>
+    <t>Tive medo de confiar nas minhas próprias escolhas.</t>
+  </si>
+  <si>
+    <t>Hoje a incerteza me deixou ansioso e temeroso.</t>
+  </si>
+  <si>
+    <t>Senti como se algo invisível estivesse me observando.</t>
+  </si>
+  <si>
+    <t>Hoje evitei situações por puro receio.</t>
+  </si>
+  <si>
+    <t>Fiquei preocupado com o que poderia acontecer.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de falhar novamente.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com tensão automática.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de não dar conta do que precisava fazer.</t>
+  </si>
+  <si>
+    <t>Senti um desconforto profundo, como um pressentimento.</t>
+  </si>
+  <si>
+    <t>Hoje tudo pareceu mais ameaçador do que de costume.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso ao pensar no futuro.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de me aproximar de algumas pessoas.</t>
+  </si>
+  <si>
+    <t>Meu coração disparou diante de uma simples dúvida.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer movimento me deixava apreensivo.</t>
+  </si>
+  <si>
+    <t>Senti medo de perder o controle da situação.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio até de falar o que pensava.</t>
+  </si>
+  <si>
+    <t>Senti uma sombra de medo durante o dia todo.</t>
+  </si>
+  <si>
+    <t>Hoje meu corpo ficou alerta sem motivo real.</t>
+  </si>
+  <si>
+    <t>Senti medo de repetir erros antigos.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar em ninguém.</t>
+  </si>
+  <si>
+    <t>Meu coração batia rápido por causa da incerteza.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de enfrentar a realidade.</t>
+  </si>
+  <si>
+    <t>Senti-me vulnerável como nunca.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio até de tentar algo novo.</t>
+  </si>
+  <si>
+    <t>Senti uma tensão que parecia não ir embora.</t>
+  </si>
+  <si>
+    <t>Hoje o medo tomou conta dos meus pensamentos.</t>
+  </si>
+  <si>
+    <t>Fiquei desconfortável ao perceber o quanto estava ansioso.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de decepcionar alguém.</t>
+  </si>
+  <si>
+    <t>Tive receio de seguir em frente.</t>
+  </si>
+  <si>
+    <t>Hoje meu corpo reagiu com tremores involuntários.</t>
+  </si>
+  <si>
+    <t>Senti medo do que ainda não aconteceu.</t>
+  </si>
+  <si>
+    <t>Hoje me senti observado até dentro de casa.</t>
+  </si>
+  <si>
+    <t>Senti uma pressão interna que parecia medo puro.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de errar mais uma vez.</t>
+  </si>
+  <si>
+    <t>Fiquei inquieto com possibilidades que nem existem.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de tomar decisões importantes.</t>
+  </si>
+  <si>
+    <t>Meu coração reagiu com um alerta constante.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de sair da minha zona de conforto.</t>
+  </si>
+  <si>
+    <t>Senti que algo podia dar errado a qualquer momento.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo até de coisas pequenas.</t>
+  </si>
+  <si>
+    <t>Meu corpo travou diante do desconhecido.</t>
+  </si>
+  <si>
+    <t>Hoje a insegurança me dominou completamente.</t>
+  </si>
+  <si>
+    <t>Senti medo de confiar em meus próprios instintos.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei alerta o tempo todo.</t>
+  </si>
+  <si>
+    <t>Tive receio de encarar situações simples.</t>
+  </si>
+  <si>
+    <t>Hoje senti que estava caminhando em terreno instável.</t>
+  </si>
+  <si>
+    <t>Senti medo de mudanças inesperadas.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer detalhe despertou minha atenção.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso o dia inteiro sem motivo claro.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de demonstrar minhas emoções.</t>
+  </si>
+  <si>
+    <t>Meu coração ficou pesado de preocupação.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de enfrentar conversas difíceis.</t>
+  </si>
+  <si>
+    <t>Senti uma inquietação que cresceu com o passar das horas.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de perder algo importante.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com rigidez e cautela.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de não conseguir me expressar.</t>
+  </si>
+  <si>
+    <t>Senti uma tensão contínua dentro de mim.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei apreensivo com sinais que nem existiam.</t>
+  </si>
+  <si>
+    <t>Meu coração disparou ao imaginar possibilidades ruins.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de enfrentar novos desafios.</t>
+  </si>
+  <si>
+    <t>Senti que estava sendo empurrado para algo assustador.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar em pessoas novas.</t>
+  </si>
+  <si>
+    <t>Fiquei alerta ao menor som.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de situações cotidianas.</t>
+  </si>
+  <si>
+    <t>Senti como se o chão estivesse prestes a ruir.</t>
+  </si>
+  <si>
+    <t>Hoje me peguei imaginando cenários que me apavoraram.</t>
+  </si>
+  <si>
+    <t>Senti medo de perder minha estabilidade emocional.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer mudança pareceu perigosa.</t>
+  </si>
+  <si>
+    <t>Tive receio de dar um passo adiante.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao perceber minha vulnerabilidade.</t>
+  </si>
+  <si>
+    <t>Meu corpo enviou sinais de alerta o tempo inteiro.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo do desconhecido mais do que nunca.</t>
+  </si>
+  <si>
+    <t>Fiquei inquieto antes mesmo do dia começar.</t>
+  </si>
+  <si>
+    <t>Hoje senti receio de tomar decisões simples.</t>
+  </si>
+  <si>
+    <t>Senti algo me dizendo para ficar em alerta total.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de tudo que não podia controlar.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou por pura ansiedade.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de falhar comigo mesmo.</t>
+  </si>
+  <si>
+    <t>Fiquei desconfiado de qualquer situação estranha.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de não estar preparado.</t>
+  </si>
+  <si>
+    <t>Senti uma tensão que dominou meu corpo.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar na minha intuição.</t>
+  </si>
+  <si>
+    <t>Senti medo ao perceber que não tinha respostas.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de encarar meus próprios pensamentos.</t>
+  </si>
+  <si>
+    <t>Senti um incômodo que parecia prenúncio de algo ruim.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo do futuro mais do que do presente.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso ao imaginar mudanças repentinas.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de enfrentar o que eu mais evito.</t>
+  </si>
+  <si>
+    <t>Senti meu corpo reagir como se estivesse em perigo.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei temeroso até diante de pessoas conhecidas.</t>
+  </si>
+  <si>
+    <t>Meu coração pulsava com preocupação constante.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de que meus planos não funcionassem.</t>
+  </si>
+  <si>
+    <t>Senti medo ao perceber que não tinha controle nenhum.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei alerta a cada minuto.</t>
+  </si>
+  <si>
+    <t>Senti uma sensação de perigo iminente.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de perder algo que me faz bem.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu como se estivesse pronto para fugir.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar no rumo das coisas.</t>
+  </si>
+  <si>
+    <t>Senti medo ao confrontar minhas próprias limitações.</t>
+  </si>
+  <si>
+    <t>Hoje a inquietação tomou conta de mim.</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo ao lidar com mudanças repentinas.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de seguir sem garantias.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou ao pensar no amanhã.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo até de tomar decisões óbvias.</t>
+  </si>
+  <si>
+    <t>Senti que algo estava prestes a dar errado.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei tenso ao menor movimento inesperado.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu como se estivesse sob ameaça.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao lidar com situações desconhecidas.</t>
+  </si>
+  <si>
+    <t>Fiquei desconfortável com tudo, até com o silêncio.</t>
+  </si>
+  <si>
+    <t>Hoje senti receio de compartilhar meus pensamentos.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou ao ouvir sons inesperados.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de me perder no meio das responsabilidades.</t>
+  </si>
+  <si>
+    <t>Senti uma pressão que só aumentava com o passar do dia.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de decepcionar a mim mesmo.</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo com tudo que parecia fora do normal.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de assumir riscos.</t>
+  </si>
+  <si>
+    <t>Meu coração reagiu com medo ao simples toque do vento.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de não ser capaz de resolver problemas.</t>
+  </si>
+  <si>
+    <t>Senti receio de enfrentar o que me aguardava.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei tenso só de pensar em mudanças.</t>
+  </si>
+  <si>
+    <t>Senti medo ao perceber que estava emocionalmente frágil.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de repetir comportamentos antigos.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu como se estivesse fugindo de algo.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao enfrentar a rotina.</t>
+  </si>
+  <si>
+    <t>Senti preocupação excessiva ao imaginar o futuro.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de não conseguir fazer o que precisava.</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo ao notar sinais que talvez nem fossem reais.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo no momento em que acordei.</t>
+  </si>
+  <si>
+    <t>Meu coração ficou acelerado durante horas.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar em situações novas.</t>
+  </si>
+  <si>
+    <t>Senti medo ao ver responsabilidades se acumulando.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei em alerta sem descanso.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso com qualquer mudança no ambiente.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de encarar minhas próprias dúvidas.</t>
+  </si>
+  <si>
+    <t>Senti como se o medo estivesse me observando.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de tentar algo diferente.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com rigidez e apreensão.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de ficar sozinho com meus pensamentos.</t>
+  </si>
+  <si>
+    <t>Senti inquietação até nas menores ações.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de simplesmente sair de casa.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou ao pensar em riscos imaginários.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei tenso ao perceber minha própria insegurança.</t>
+  </si>
+  <si>
+    <t>Senti medo ao ver o quanto estava sensível.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de falar o que eu precisava dizer.</t>
+  </si>
+  <si>
+    <t>Meu corpo respondeu com tremor ao menor estímulo.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo até de receber notícias.</t>
+  </si>
+  <si>
+    <t>Senti apreensão ao lidar com decisões urgentes.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de confiar no caminho que escolhi.</t>
+  </si>
+  <si>
+    <t>Meu coração estava inquieto desde o amanhecer.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de mudanças inevitáveis.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso ao imaginar possibilidades negativas.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de encarar momentos importantes.</t>
+  </si>
+  <si>
+    <t>Senti medo de ser surpreendido por algo ruim.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei alerta sem saber o motivo.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com adrenalina a algo inexistente.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de perder tudo que conquistei.</t>
+  </si>
+  <si>
+    <t>Tive receio de expor minhas ideias.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao perceber que estava vulnerável.</t>
+  </si>
+  <si>
+    <t>Meu coração disparou com uma simples lembrança.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de que tudo fugisse do controle.</t>
+  </si>
+  <si>
+    <t>Senti medo ao ver o quanto estava despreparado.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei inquieto com o comportamento das pessoas.</t>
+  </si>
+  <si>
+    <t>Meu corpo ficou em estado de alerta o tempo inteiro.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de não ter respostas.</t>
+  </si>
+  <si>
+    <t>Tive receio até das minhas escolhas antigas.</t>
+  </si>
+  <si>
+    <t>Hoje senti um medo que parecia crescer dentro de mim.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou só de imaginar o que poderia acontecer.</t>
+  </si>
+  <si>
+    <t>Hoje fiquei tenso ao lidar com responsabilidades.</t>
+  </si>
+  <si>
+    <t>Senti medo ao ver o quanto o dia parecia imprevisível.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de tentar resolver situações difíceis.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com endurecimento e cautela.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de sair da rotina.</t>
+  </si>
+  <si>
+    <t>Fiquei apreensivo com qualquer coisa diferente.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de decepcionar quem confio.</t>
+  </si>
+  <si>
+    <t>Meu coração disparou ao ouvir uma notícia inesperada.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao enfrentar desafios pequenos.</t>
+  </si>
+  <si>
+    <t>Tive receio de assumir compromissos importantes.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo que parecia estar me cercando.</t>
+  </si>
+  <si>
+    <t>Meu corpo tremia sem motivo claro.</t>
+  </si>
+  <si>
+    <t>Hoje tive medo de me arriscar um pouco mais.</t>
+  </si>
+  <si>
+    <t>Senti que precisava me proteger de tudo.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de confiar em quem se aproximava.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou ao imaginar o desconhecido.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de perder meu equilíbrio emocional.</t>
+  </si>
+  <si>
+    <t>Tive receio de expor minhas vulnerabilidades.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de estar errado sobre tudo.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu como se houvesse um alerta invisível.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de enfrentar os acontecimentos.</t>
+  </si>
+  <si>
+    <t>Senti medo ao pensar nos próximos dias.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer barulho pareceu um aviso.</t>
+  </si>
+  <si>
+    <t>Tive receio de seguir adiante sem respostas.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo ao ver que não tinha controle algum.</t>
+  </si>
+  <si>
+    <t>Fiquei tenso mesmo nas situações mais simples.</t>
+  </si>
+  <si>
+    <t>Hoje tive receio de perder minha estabilidade.</t>
+  </si>
+  <si>
+    <t>Senti medo ao perceber que estava no limite.</t>
+  </si>
+  <si>
+    <t>Hoje senti receio de fazer escolhas importantes.</t>
+  </si>
+  <si>
+    <t>Meu coração acelerou ao imaginar desafios futuros.</t>
+  </si>
+  <si>
+    <t>Hoje senti medo de não ser forte o suficiente.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma raiva que queimava por dentro.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com situações que normalmente eu relevaria.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer coisa pequena conseguiu me tirar do sério.</t>
+  </si>
+  <si>
+    <t>Senti meu sangue ferver diante da injustiça.</t>
+  </si>
+  <si>
+    <t>Hoje perdi a paciência mais rápido do que eu imaginava.</t>
+  </si>
+  <si>
+    <t>Fiquei frustrado com minha própria falta de controle.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de coisas que nem faziam sentido.</t>
+  </si>
+  <si>
+    <t>Meu corpo ficou tenso de tanta irritação.</t>
+  </si>
+  <si>
+    <t>Hoje tudo parecia motivo para me aborrecer.</t>
+  </si>
+  <si>
+    <t>Senti vontade de me afastar de tudo para não explodir.</t>
+  </si>
+  <si>
+    <t>Hoje a irritação tomou conta de mim desde cedo.</t>
+  </si>
+  <si>
+    <t>Fiquei incomodado com atitudes que me desrespeitaram.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva acumulada transbordar.</t>
+  </si>
+  <si>
+    <t>Fiquei impaciente com quem não colaborava.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer atraso me irritou profundamente.</t>
+  </si>
+  <si>
+    <t>Senti uma mistura de frustração e indignação.</t>
+  </si>
+  <si>
+    <t>Hoje minha paciência simplesmente não existiu.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com a falta de consideração.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva até dos meus próprios erros.</t>
+  </si>
+  <si>
+    <t>Meu pensamento estava cheio de irritação.</t>
+  </si>
+  <si>
+    <t>Hoje o menor barulho me incomodou.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com situações repetidas.</t>
+  </si>
+  <si>
+    <t>Hoje senti um peso de frustração me dominando.</t>
+  </si>
+  <si>
+    <t>Senti raiva de não conseguir controlar tudo.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer descuido me deixava tenso.</t>
+  </si>
+  <si>
+    <t>Fiquei incomodado com pessoas que atrapalharam meu ritmo.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma irritação que não queria ir embora.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com respostas curtas e grossas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de expectativas quebradas.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com rigidez ao menor incômodo.</t>
+  </si>
+  <si>
+    <t>Hoje a impaciência foi minha maior companhia.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com promessas não cumpridas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de ações irresponsáveis.</t>
+  </si>
+  <si>
+    <t>Fiquei frustrado com meu próprio desempenho.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma irritação que vinha do nada.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com a forma como fui tratado.</t>
+  </si>
+  <si>
+    <t>Hoje tive dificuldade para esconder minha raiva.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com comentários desnecessários.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de situações que pareceram injustas.</t>
+  </si>
+  <si>
+    <t>Meu coração batia rápido de tanta irritação.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer desorganização me incomodava.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com interrupções constantes.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por não conseguir relaxar.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes egoístas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de conversas que não levaram a nada.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com falta de compromisso.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma fúria silenciosa dentro de mim.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com a demora das coisas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de não ser compreendido.</t>
+  </si>
+  <si>
+    <t>Meu corpo ficou quente de tanta irritação.</t>
+  </si>
+  <si>
+    <t>Hoje senti um incômodo crescente ao longo do dia.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com mudanças inesperadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de ser cobrado por tudo.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com decisões mal pensadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por não ser ouvido.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com respostas malcriadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por não conseguir resolver problemas.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com imprevistos desnecessários.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de comportamentos irresponsáveis.</t>
+  </si>
+  <si>
+    <t>Meu humor estava totalmente impaciente.</t>
+  </si>
+  <si>
+    <t>Hoje qualquer crítica me irritou profundamente.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com falta de respeito.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por ser interrompido repetidas vezes.</t>
+  </si>
+  <si>
+    <t>Fiquei estressado ao lidar com pessoas difíceis.</t>
+  </si>
+  <si>
+    <t>Hoje senti irritação até ao tentar descansar.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com falhas simples.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de atrasos injustificados.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com quem não colaborava.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ver planos não darem certo.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com erros evitáveis.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma raiva silenciosa crescendo em mim.</t>
+  </si>
+  <si>
+    <t>Meu corpo reagiu com tensão diante de provocações.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de coisas que normalmente ignoraria.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado ao ser contrariado sem motivo.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por não conseguir explicar algo.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com desorganização alheia.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por não ser priorizado.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com a falta de atenção das pessoas.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma irritação profunda que não passou.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes imprudentes.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de interrupções constantes.</t>
+  </si>
+  <si>
+    <t>Fiquei estressado ao lidar com falhas técnicas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de ser pressionado.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com a falta de empatia.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber injustiças pequenas.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com o ritmo lento das coisas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração de perder tempo.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com comportamentos mesquinhos.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de conselhos não pedidos.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com minha própria falta de foco.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ser mal interpretado.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com opiniões invasivas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de não ter alternativas.</t>
+  </si>
+  <si>
+    <t>Meu corpo ficou agitado com tanta irritação.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por não conseguir desligar a mente.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com a teimosia das pessoas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ver esforços sendo ignorados.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com contradições alheias.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de imprevistos repetidos.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com respostas vagas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao tentar resolver várias coisas ao mesmo tempo.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com barulhos insistentes.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao perceber falta de preparo dos outros.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes apáticas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por não conseguir compartilhar o que sentia.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com atrasos que atrapalharam meu dia.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de interrupções que quebraram meu foco.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com pedidos feitos em cima da hora.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com descuidos bobos.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com fofocas desnecessárias.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver meu esforço sendo ignorado.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com minha própria desatenção.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com expectativas alheias.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com pequenas falhas repetidas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por me sentir pressionado.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com exigências exageradas.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma raiva crescente sem motivo aparente.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com quem não assumiu responsabilidades.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao lidar com contratempos.</t>
+  </si>
+  <si>
+    <t>Fiquei estressado ao ver tarefas acumulando.</t>
+  </si>
+  <si>
+    <t>Hoje senti irritação por não ter espaço para respirar.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com mentiras disfarçadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ser mal interpretado.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com a falta de comunicação clara.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com burocracia.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com decisões injustas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber promessas quebradas.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com pessoas atrapalhando meu progresso.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao não conseguir terminar algo importante.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com erros repetidos.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com pressões externas.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com críticas maliciosas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver alguém sendo desrespeitado.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com atitudes oportunistas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao não receber apoio quando precisei.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com interferências desnecessárias.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por ser mal interpretado.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado ao ver injustiças acontecendo.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber abusos emocionais.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com ironias intencionais.</t>
+  </si>
+  <si>
+    <t>Hoje senti incômodo com gente que só complica.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com desculpas vazias.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ser tratado com descaso.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com falta de cuidado nos detalhes.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração com atrasos constantes.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com comportamentos imaturos.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao lidar com resistência injustificada.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com conversas desnecessárias.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por não ser respeitado.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com atitudes mandonas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver egoísmo puro.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com comentários comparativos.</t>
+  </si>
+  <si>
+    <t>Hoje senti incômodo com críticas exageradas.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com falta de responsabilidade coletiva.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao tentar ajudar e não ser ouvido.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com desatenção repetida.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com conflitos evitáveis.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com perguntas provocativas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber falta de reconhecimento.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com excesso de cobranças.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver planos sendo sabotados.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes abusivas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ver erros óbvios sendo ignorados.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com contradições constantes.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao lidar com manipulação.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com críticas sem fundamento.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber má vontade.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com indiretas desnecessárias.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ser pressionado por prazos curtos.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes maldosas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver alguém distorcer fatos.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com a falta de organização alheia.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber descuidos graves.</t>
+  </si>
+  <si>
+    <t>Fiquei estressado com acúmulo de tarefas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração por depender de outras pessoas.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes injustificáveis.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao lidar com mau humor de terceiros.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com cobranças fora de hora.</t>
+  </si>
+  <si>
+    <t>Hoje senti incômodo com falta de atenção básica.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com promessas que nunca se cumprem.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver falta de compromisso.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com conversa fiada quando precisava de foco.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao não ser levado a sério.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com desorganização completa.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao perceber falta de clareza nas informações.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com exigências desnecessárias.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de tarefas impostas sem explicação.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com mudanças repentinas e mal comunicadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver falta de empatia.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com manipulações sutis.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao lidar com desinteresse.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com atitudes incoerentes.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ser interrompido diversas vezes.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com falta de preparo de outras pessoas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver meu tempo sendo desperdiçado.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com devolutivas agressivas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao tentar solucionar problemas alheios.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com injustiças escancaradas.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao ver alguém sendo ignorante.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com gestos de desrespeito.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva de atitudes irresponsáveis.</t>
+  </si>
+  <si>
+    <t>Fiquei aborrecido com intolerância desnecessária.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao tentar explicar tudo repetidamente.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com quem não assumiu seus erros.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva ao lidar com má fé.</t>
+  </si>
+  <si>
+    <t>Fiquei indignado com sabotagens sutis.</t>
+  </si>
+  <si>
+    <t>Hoje senti raiva por ver comportamentos egoístas.</t>
+  </si>
+  <si>
+    <t>Fiquei irritado com falhas que poderiam ser evitadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti frustração ao ver planos desmoronarem.</t>
+  </si>
+  <si>
+    <t>Hoje acordei com uma tristeza difícil de explicar.</t>
+  </si>
+  <si>
+    <t>Senti um peso no peito que me acompanhou o dia todo.</t>
+  </si>
+  <si>
+    <t>Hoje meu sorriso não conseguiu aparecer.</t>
+  </si>
+  <si>
+    <t>Senti vontade de me esconder do mundo.</t>
+  </si>
+  <si>
+    <t>Hoje a saudade apertou mais do que ontem.</t>
+  </si>
+  <si>
+    <t>Senti minha energia desaparecer aos poucos.</t>
+  </si>
+  <si>
+    <t>Hoje o silêncio pareceu mais pesado.</t>
+  </si>
+  <si>
+    <t>Senti lágrimas que nem chegaram a cair.</t>
+  </si>
+  <si>
+    <t>Hoje tudo pareceu mais cinza do que de costume.</t>
+  </si>
+  <si>
+    <t>Senti uma dor que não tinha nome.</t>
+  </si>
+  <si>
+    <t>Hoje o vazio falou mais alto.</t>
+  </si>
+  <si>
+    <t>Senti um cansaço emocional que me derrubou.</t>
+  </si>
+  <si>
+    <t>Hoje senti que algo dentro de mim estava desmoronando.</t>
+  </si>
+  <si>
+    <t>Senti que meu coração estava frágil.</t>
+  </si>
+  <si>
+    <t>Hoje o dia passou e eu mal percebi.</t>
+  </si>
+  <si>
+    <t>Senti uma solidão que nem a presença de outros resolveu.</t>
+  </si>
+  <si>
+    <t>Senti meu peito apertar sem motivo claro.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que algumas feridas ainda doem.</t>
+  </si>
+  <si>
+    <t>Senti que o mundo estava pesado demais.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza até nas pequenas coisas.</t>
+  </si>
+  <si>
+    <t>Senti que não tinha força para reagir.</t>
+  </si>
+  <si>
+    <t>Hoje meu coração pediu por descanso.</t>
+  </si>
+  <si>
+    <t>Senti um nó na garganta difícil de engolir.</t>
+  </si>
+  <si>
+    <t>Hoje senti um vazio que parecia infinito.</t>
+  </si>
+  <si>
+    <t>Senti meu corpo cansado de carregar tantas emoções.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta de algo que nunca tive.</t>
+  </si>
+  <si>
+    <t>Senti um desânimo profundo me acompanhando.</t>
+  </si>
+  <si>
+    <t>Hoje a tristeza veio sem aviso.</t>
+  </si>
+  <si>
+    <t>Senti minha alma ficar silenciosa.</t>
+  </si>
+  <si>
+    <t>Hoje senti que tudo caminhava devagar demais.</t>
+  </si>
+  <si>
+    <t>Senti saudade do que eu não posso voltar.</t>
+  </si>
+  <si>
+    <t>Hoje me senti deslocado no próprio mundo.</t>
+  </si>
+  <si>
+    <t>Senti uma melancolia que tomou conta de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti que não tinha mais para onde correr.</t>
+  </si>
+  <si>
+    <t>Senti que o dia pedia choro.</t>
+  </si>
+  <si>
+    <t>Hoje me senti menor do que minhas dores.</t>
+  </si>
+  <si>
+    <t>Senti minha luz diminuir um pouco.</t>
+  </si>
+  <si>
+    <t>Hoje o tempo parecia não colaborar com meu humor.</t>
+  </si>
+  <si>
+    <t>Senti meu coração pesado como pedra.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao lembrar de antigos sonhos.</t>
+  </si>
+  <si>
+    <t>Senti que algo em mim estava desistindo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que o mundo inteiro estava distante.</t>
+  </si>
+  <si>
+    <t>Senti meu peito doer só de pensar no futuro.</t>
+  </si>
+  <si>
+    <t>Hoje percebi que algumas cicatrizes permanecem.</t>
+  </si>
+  <si>
+    <t>Senti que precisava de um abraço que não veio.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma saudade que machucava.</t>
+  </si>
+  <si>
+    <t>Senti uma tristeza silenciosa invadir meu dia.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta de alegria.</t>
+  </si>
+  <si>
+    <t>Senti que tudo ao meu redor perdeu a cor.</t>
+  </si>
+  <si>
+    <t>Hoje senti o peso de lembranças antigas.</t>
+  </si>
+  <si>
+    <t>Senti que tinha muito a chorar e pouco a falar.</t>
+  </si>
+  <si>
+    <t>Hoje senti um desamparo inesperado.</t>
+  </si>
+  <si>
+    <t>Senti meu coração lento e cansado.</t>
+  </si>
+  <si>
+    <t>Hoje senti que tudo estava bagunçado dentro de mim.</t>
+  </si>
+  <si>
+    <t>Senti saudade do que eu era antes.</t>
+  </si>
+  <si>
+    <t>Hoje senti um aperto que não consegui aliviar.</t>
+  </si>
+  <si>
+    <t>Senti que nada me animava.</t>
+  </si>
+  <si>
+    <t>Hoje senti o mundo pesar sobre meus ombros.</t>
+  </si>
+  <si>
+    <t>Senti a tristeza se espalhando lentamente.</t>
+  </si>
+  <si>
+    <t>Hoje senti meus pensamentos escurecerem.</t>
+  </si>
+  <si>
+    <t>Senti meu corpo pedir por descanso emocional.</t>
+  </si>
+  <si>
+    <t>Hoje senti que faltava algo que eu nem sabia o que era.</t>
+  </si>
+  <si>
+    <t>Senti o silêncio gritar dentro de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma dor que não sei explicar.</t>
+  </si>
+  <si>
+    <t>Senti meu sorriso desistir antes de aparecer.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao olhar para trás.</t>
+  </si>
+  <si>
+    <t>Senti que não tinha mais forças para lutar.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a esperança estava distante.</t>
+  </si>
+  <si>
+    <t>Senti que meu coração estava machucado.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza até no que antes me alegrava.</t>
+  </si>
+  <si>
+    <t>Senti vontade de desaparecer por um momento.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meu mundo estava despedaçado.</t>
+  </si>
+  <si>
+    <t>Senti que falhei comigo mesmo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que o tempo não curou tudo.</t>
+  </si>
+  <si>
+    <t>Senti uma fragilidade enorme dentro de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti o peso de coisas não ditas.</t>
+  </si>
+  <si>
+    <t>Senti tristeza nas minhas lembranças.</t>
+  </si>
+  <si>
+    <t>Hoje senti que precisava chorar para aliviar.</t>
+  </si>
+  <si>
+    <t>Senti que nada parecia suficiente.</t>
+  </si>
+  <si>
+    <t>Hoje senti um vazio que ecoava.</t>
+  </si>
+  <si>
+    <t>Senti que minha alegria estava escondida.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao pensar no que perdi.</t>
+  </si>
+  <si>
+    <t>Senti saudade de tempos que não voltam.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu coração afundar.</t>
+  </si>
+  <si>
+    <t>Senti uma escuridão suave dentro de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti que estava andando sem rumo.</t>
+  </si>
+  <si>
+    <t>Senti vontade de ficar sozinho o dia inteiro.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao ver tudo igual.</t>
+  </si>
+  <si>
+    <t>Senti que meus pensamentos estavam mais pesados.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta do que eu costumava ser.</t>
+  </si>
+  <si>
+    <t>Senti que precisava de paz.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a tristeza tomou conta do meu dia.</t>
+  </si>
+  <si>
+    <t>Senti um aperto que não passava.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta de alguém que nem sabe disso.</t>
+  </si>
+  <si>
+    <t>Senti que não tinha coragem para sorrir.</t>
+  </si>
+  <si>
+    <t>Hoje senti que o mundo estava grande demais para mim.</t>
+  </si>
+  <si>
+    <t>Senti um vazio parecido com saudade.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza sem saber o porquê.</t>
+  </si>
+  <si>
+    <t>Senti meus olhos pesarem de tanto cansaço.</t>
+  </si>
+  <si>
+    <t>Hoje senti que precisava respirar devagar.</t>
+  </si>
+  <si>
+    <t>Senti um cansaço que vinha de dentro.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de não sentir nada.</t>
+  </si>
+  <si>
+    <t>Senti que tudo estava desfocado.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao ver meus planos falharem.</t>
+  </si>
+  <si>
+    <t>Senti que o dia não tinha cor pra mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu peito encolher.</t>
+  </si>
+  <si>
+    <t>Senti que minha alma estava cansada.</t>
+  </si>
+  <si>
+    <t>Hoje senti que precisava de tempo.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao lembrar de promessas quebradas.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de ficar quieto.</t>
+  </si>
+  <si>
+    <t>Senti que meu coração estava pedindo ajuda.</t>
+  </si>
+  <si>
+    <t>Hoje senti uma saudade que machuca.</t>
+  </si>
+  <si>
+    <t>Senti que não tinha motivos para sorrir.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meus sonhos estavam distantes.</t>
+  </si>
+  <si>
+    <t>Senti que o silêncio era mais confortável.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao perceber minha solidão.</t>
+  </si>
+  <si>
+    <t>Senti falta de me sentir leve.</t>
+  </si>
+  <si>
+    <t>Hoje senti que não conseguia acompanhar o ritmo do mundo.</t>
+  </si>
+  <si>
+    <t>Senti um cansaço que tomou conta de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao ouvir certas palavras.</t>
+  </si>
+  <si>
+    <t>Senti que meu coração estava sensível demais.</t>
+  </si>
+  <si>
+    <t>Hoje senti que algo dentro de mim estava partindo.</t>
+  </si>
+  <si>
+    <t>Senti que minhas emoções estavam pesadas.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de pausar tudo.</t>
+  </si>
+  <si>
+    <t>Senti que o dia amanheceu cinzento como eu.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao ver minhas falhas.</t>
+  </si>
+  <si>
+    <t>Senti que precisava de um colo.</t>
+  </si>
+  <si>
+    <t>Hoje senti que minhas expectativas me machucaram.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao olhar para o futuro.</t>
+  </si>
+  <si>
+    <t>Hoje senti saudade de coisas simples.</t>
+  </si>
+  <si>
+    <t>Senti que estava me afogando em pensamentos.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao perceber a distância entre eu e os outros.</t>
+  </si>
+  <si>
+    <t>Senti que minha mente estava exausta.</t>
+  </si>
+  <si>
+    <t>Hoje senti que não conseguia fugir da dor.</t>
+  </si>
+  <si>
+    <t>Senti um aperto que me acompanhou o dia inteiro.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao lembrar de quem já fui.</t>
+  </si>
+  <si>
+    <t>Senti que meu interior estava silencioso demais.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meu sorriso estava escondido.</t>
+  </si>
+  <si>
+    <t>Senti que não conseguia organizar meus sentimentos.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza que pesava mais que o normal.</t>
+  </si>
+  <si>
+    <t>Senti uma angústia no fundo da alma.</t>
+  </si>
+  <si>
+    <t>Hoje senti saudade de momentos felizes.</t>
+  </si>
+  <si>
+    <t>Senti tristeza por não conseguir ser compreendido.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meus medos estavam mais fortes.</t>
+  </si>
+  <si>
+    <t>Senti um nó emocional preso dentro de mim.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao perceber o quanto perdi.</t>
+  </si>
+  <si>
+    <t>Senti vontade de desaparecer por algumas horas.</t>
+  </si>
+  <si>
+    <t>Hoje senti um vazio que não se preenchia.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao ver meus esforços irem embora.</t>
+  </si>
+  <si>
+    <t>Hoje senti que não conseguia me animar com nada.</t>
+  </si>
+  <si>
+    <t>Senti saudade do que me fazia bem.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu coração apertado.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao perceber que o tempo passou rápido demais.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de abraçar quem não está mais aqui.</t>
+  </si>
+  <si>
+    <t>Senti que minhas lembranças pesavam.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao ouvir algumas músicas.</t>
+  </si>
+  <si>
+    <t>Senti que a vida estava embaraçada.</t>
+  </si>
+  <si>
+    <t>Hoje senti que perdi um pouco de mim.</t>
+  </si>
+  <si>
+    <t>Senti tristeza que vinha sem explicação.</t>
+  </si>
+  <si>
+    <t>Hoje senti que estava no limite.</t>
+  </si>
+  <si>
+    <t>Senti um silêncio enorme dentro do peito.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao perceber a falta que alguém faz.</t>
+  </si>
+  <si>
+    <t>Senti que precisava de um pouco de luz.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a dor antiga voltou.</t>
+  </si>
+  <si>
+    <t>Senti saudade de momentos que nunca mais voltarão.</t>
+  </si>
+  <si>
+    <t>Hoje senti que estava preso em mim mesmo.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao olhar ao redor.</t>
+  </si>
+  <si>
+    <t>Hoje senti um vazio que parecia eterno.</t>
+  </si>
+  <si>
+    <t>Senti que meu coração estava afogado em saudade.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza por dentro, mesmo sorrindo por fora.</t>
+  </si>
+  <si>
+    <t>Senti que meu mundo estava descolorido.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta de estar bem.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao me lembrar de conversas antigas.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu peito desabar.</t>
+  </si>
+  <si>
+    <t>Senti vontade de desaparecer na minha própria mente.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza que não conseguia esconder.</t>
+  </si>
+  <si>
+    <t>Senti saudade de pessoas distantes.</t>
+  </si>
+  <si>
+    <t>Hoje senti que não pertencia a lugar nenhum.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao lembrar do passado.</t>
+  </si>
+  <si>
+    <t>Hoje senti que meus pensamentos estavam nublados.</t>
+  </si>
+  <si>
+    <t>Senti que estava carregando muito peso.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao pensar em tudo que poderia ter sido.</t>
+  </si>
+  <si>
+    <t>Senti que meu sorriso não era verdadeiro.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de ficar em silêncio o dia todo.</t>
+  </si>
+  <si>
+    <t>Senti uma tristeza que parecia antiga.</t>
+  </si>
+  <si>
+    <t>Hoje senti meu coração soluçar por dentro.</t>
+  </si>
+  <si>
+    <t>Senti falta de minha alegria antiga.</t>
+  </si>
+  <si>
+    <t>Hoje senti que estava cansado de tentar.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao ver o tempo passar rápido.</t>
+  </si>
+  <si>
+    <t>Hoje senti que a vida estava mais pesada.</t>
+  </si>
+  <si>
+    <t>Senti que precisava de um descanso emocional.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao perceber minhas próprias falhas.</t>
+  </si>
+  <si>
+    <t>Senti uma dor que não queria ir embora.</t>
+  </si>
+  <si>
+    <t>Hoje senti falta de tudo que já perdi.</t>
+  </si>
+  <si>
+    <t>Senti tristeza ao imaginar o futuro incerto.</t>
+  </si>
+  <si>
+    <t>Hoje senti vontade de chorar sem motivo.</t>
+  </si>
+  <si>
+    <t>Senti que estava frágil demais.</t>
+  </si>
+  <si>
+    <t>Hoje senti tristeza ao olhar para dentro de mim.</t>
   </si>
 </sst>
 </file>
@@ -3782,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1152"/>
+  <dimension ref="A1:O1963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1090" workbookViewId="0">
-      <selection activeCell="B912" sqref="A912:B912"/>
+    <sheetView tabSelected="1" topLeftCell="A1162" workbookViewId="0">
+      <selection activeCell="O1178" sqref="O1178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -12754,16 +15277,6751 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1121" ht="15"/>
-    <row r="1122" ht="15"/>
-    <row r="1123" ht="15"/>
-    <row r="1124" ht="15"/>
-    <row r="1148" spans="3:3" ht="15"/>
-    <row r="1149" spans="3:3" ht="15"/>
-    <row r="1150" spans="3:3" ht="15"/>
-    <row r="1151" spans="3:3" ht="15"/>
-    <row r="1152" spans="3:3" ht="15">
+    <row r="1121" spans="1:2" ht="15">
+      <c r="A1121" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" ht="15">
+      <c r="A1122" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" ht="15">
+      <c r="A1123" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" ht="15">
+      <c r="A1124" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
+      <c r="A1137" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
+      <c r="A1138" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
+      <c r="A1139" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
+      <c r="A1140" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
+      <c r="A1141" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c r="A1142" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
+      <c r="A1143" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
+      <c r="A1144" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
+      <c r="A1145" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
+      <c r="A1146" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
+      <c r="A1147" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" ht="15">
+      <c r="A1148" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" ht="15">
+      <c r="A1149" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" ht="15">
+      <c r="A1150" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" ht="15">
+      <c r="A1151" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" ht="15">
+      <c r="A1152" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>3</v>
+      </c>
       <c r="C1152" s="2"/>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="A1161" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="A1162" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="A1163" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="A1164" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2">
+      <c r="A1165" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:15">
+      <c r="A1169" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:15">
+      <c r="A1170" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:15">
+      <c r="A1171" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:15">
+      <c r="A1172" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:15">
+      <c r="A1173" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:15">
+      <c r="A1174" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:15">
+      <c r="A1175" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:15">
+      <c r="A1176" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:15">
+      <c r="A1177" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:15" ht="15">
+      <c r="A1178" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1178" s="2"/>
+    </row>
+    <row r="1179" spans="1:15">
+      <c r="A1179" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:15">
+      <c r="A1180" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:15">
+      <c r="A1181" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:15">
+      <c r="A1182" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:15">
+      <c r="A1183" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:15">
+      <c r="A1184" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="A1189" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2">
+      <c r="A1191" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="A1192" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="A1193" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="A1194" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="A1199" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="A1200" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="A1201" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="A1202" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="A1203" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="A1204" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="A1205" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="A1206" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="A1207" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="A1209" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="A1210" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="A1211" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="A1212" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="A1213" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="A1224" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2">
+      <c r="A1225" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="A1226" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="A1227" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="A1228" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="A1229" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="A1230" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2">
+      <c r="A1231" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="A1232" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="A1233" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="A1234" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="A1235" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="A1236" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="A1237" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="A1238" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="A1239" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="A1240" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="A1241" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="A1242" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="A1243" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="A1244" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2">
+      <c r="A1245" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="A1246" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="A1250" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="A1252" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="A1253" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="A1254" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="A1255" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="A1256" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2">
+      <c r="A1257" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="A1259" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="A1260" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="A1261" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="A1265" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="A1266" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="A1271" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="A1272" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="A1273" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="A1274" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="A1275" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="A1279" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="A1280" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="A1282" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="A1283" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="A1287" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="A1288" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="A1290" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="A1291" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="A1293" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="A1294" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="A1298" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="A1301" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="A1302" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="A1303" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2">
+      <c r="A1362" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2">
+      <c r="A1363" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2">
+      <c r="A1364" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2">
+      <c r="A1365" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2">
+      <c r="A1366" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2">
+      <c r="A1367" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2">
+      <c r="A1368" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2">
+      <c r="A1369" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2">
+      <c r="A1370" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2">
+      <c r="A1371" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2">
+      <c r="A1372" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2">
+      <c r="A1374" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2">
+      <c r="A1375" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2">
+      <c r="A1376" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2">
+      <c r="A1377" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2">
+      <c r="A1381" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2">
+      <c r="A1384" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2">
+      <c r="A1385" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2">
+      <c r="A1386" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2">
+      <c r="A1387" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2">
+      <c r="A1388" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2">
+      <c r="A1389" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2">
+      <c r="A1390" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2">
+      <c r="A1391" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2">
+      <c r="A1392" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2">
+      <c r="A1393" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2">
+      <c r="A1394" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2">
+      <c r="A1395" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2">
+      <c r="A1396" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2">
+      <c r="A1397" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2">
+      <c r="A1399" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2">
+      <c r="A1403" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2">
+      <c r="A1404" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2">
+      <c r="A1405" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2">
+      <c r="A1406" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2">
+      <c r="A1407" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2">
+      <c r="A1408" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2">
+      <c r="A1409" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2">
+      <c r="A1410" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="A1411" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2">
+      <c r="A1412" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="A1413" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2">
+      <c r="A1414" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2">
+      <c r="A1415" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2">
+      <c r="A1417" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2">
+      <c r="A1418" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2">
+      <c r="A1419" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2">
+      <c r="A1420" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2">
+      <c r="A1421" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2">
+      <c r="A1422" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2">
+      <c r="A1423" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2">
+      <c r="A1424" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2">
+      <c r="A1425" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2">
+      <c r="A1426" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="A1427" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2">
+      <c r="A1428" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2">
+      <c r="A1429" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="A1430" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2">
+      <c r="A1431" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2">
+      <c r="A1432" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2">
+      <c r="A1433" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2">
+      <c r="A1434" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2">
+      <c r="A1436" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2">
+      <c r="A1437" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2">
+      <c r="A1438" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="A1439" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2">
+      <c r="A1440" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="A1441" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2">
+      <c r="A1442" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2">
+      <c r="A1443" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="A1444" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="A1447" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="A1448" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="A1449" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2">
+      <c r="A1452" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2">
+      <c r="A1453" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2">
+      <c r="A1454" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2">
+      <c r="A1456" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2">
+      <c r="A1457" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2">
+      <c r="A1459" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="A1460" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2">
+      <c r="A1462" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2">
+      <c r="A1463" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2">
+      <c r="A1464" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2">
+      <c r="A1465" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2">
+      <c r="A1466" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2">
+      <c r="A1467" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="A1468" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="A1469" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="A1470" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2">
+      <c r="A1471" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2">
+      <c r="A1472" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2">
+      <c r="A1473" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2">
+      <c r="A1474" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="A1475" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2">
+      <c r="A1476" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="A1477" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2">
+      <c r="A1479" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2">
+      <c r="A1480" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2">
+      <c r="A1481" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2">
+      <c r="A1484" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2">
+      <c r="A1485" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2">
+      <c r="A1487" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2">
+      <c r="A1488" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2">
+      <c r="A1489" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2">
+      <c r="A1490" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2">
+      <c r="A1492" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2">
+      <c r="A1493" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2">
+      <c r="A1495" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="A1497" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2">
+      <c r="A1498" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="A1499" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2">
+      <c r="A1501" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2">
+      <c r="A1502" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2">
+      <c r="A1504" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2">
+      <c r="A1505" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2">
+      <c r="A1508" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2">
+      <c r="A1509" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2">
+      <c r="A1510" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2">
+      <c r="A1511" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2">
+      <c r="A1512" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2">
+      <c r="A1513" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2">
+      <c r="A1514" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="A1515" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="A1516" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="A1517" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2">
+      <c r="A1519" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2">
+      <c r="A1520" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2">
+      <c r="A1521" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2">
+      <c r="A1522" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2">
+      <c r="A1523" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2">
+      <c r="A1524" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2">
+      <c r="A1525" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2">
+      <c r="A1526" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2">
+      <c r="A1527" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2">
+      <c r="A1528" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2">
+      <c r="A1529" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="A1530" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2">
+      <c r="A1531" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="A1532" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="A1533" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2">
+      <c r="A1534" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2">
+      <c r="A1535" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2">
+      <c r="A1536" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2">
+      <c r="A1537" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2">
+      <c r="A1538" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="A1542" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2">
+      <c r="A1543" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2">
+      <c r="A1544" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2">
+      <c r="A1545" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2">
+      <c r="A1546" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="A1547" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2">
+      <c r="A1548" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2">
+      <c r="A1550" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2">
+      <c r="A1551" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2">
+      <c r="A1552" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2">
+      <c r="A1553" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2">
+      <c r="A1554" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2">
+      <c r="A1555" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2">
+      <c r="A1556" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2">
+      <c r="A1557" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2">
+      <c r="A1558" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2">
+      <c r="A1559" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2">
+      <c r="A1560" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2">
+      <c r="A1561" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2">
+      <c r="A1562" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2">
+      <c r="A1563" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2">
+      <c r="A1564" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2">
+      <c r="A1565" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2">
+      <c r="A1566" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2">
+      <c r="A1567" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2">
+      <c r="A1569" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2">
+      <c r="A1570" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2">
+      <c r="A1571" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2">
+      <c r="A1572" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2">
+      <c r="A1573" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2">
+      <c r="A1575" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2">
+      <c r="A1577" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2">
+      <c r="A1583" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2">
+      <c r="A1584" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2">
+      <c r="A1585" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2">
+      <c r="A1586" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2">
+      <c r="A1587" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2">
+      <c r="A1588" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2">
+      <c r="A1589" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2">
+      <c r="A1590" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2">
+      <c r="A1591" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2">
+      <c r="A1592" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2">
+      <c r="A1593" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2">
+      <c r="A1594" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2">
+      <c r="A1595" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2">
+      <c r="A1596" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2">
+      <c r="A1597" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2">
+      <c r="A1598" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2">
+      <c r="A1599" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2">
+      <c r="A1600" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2">
+      <c r="A1601" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2">
+      <c r="A1602" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2">
+      <c r="A1603" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2">
+      <c r="A1604" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2">
+      <c r="A1605" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2">
+      <c r="A1606" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2">
+      <c r="A1607" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2">
+      <c r="A1608" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2">
+      <c r="A1609" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2">
+      <c r="A1610" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2">
+      <c r="A1611" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2">
+      <c r="A1612" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2">
+      <c r="A1613" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2">
+      <c r="A1614" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2">
+      <c r="A1615" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2">
+      <c r="A1616" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2">
+      <c r="A1617" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2">
+      <c r="A1618" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2">
+      <c r="A1619" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2">
+      <c r="A1620" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2">
+      <c r="A1621" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2">
+      <c r="A1622" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2">
+      <c r="A1623" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2">
+      <c r="A1624" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2">
+      <c r="A1625" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2">
+      <c r="A1626" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2">
+      <c r="A1627" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2">
+      <c r="A1628" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2">
+      <c r="A1629" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2">
+      <c r="A1630" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2">
+      <c r="A1631" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2">
+      <c r="A1632" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2">
+      <c r="A1633" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2">
+      <c r="A1634" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2">
+      <c r="A1635" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2">
+      <c r="A1636" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2">
+      <c r="A1637" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2">
+      <c r="A1638" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2">
+      <c r="A1639" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2">
+      <c r="A1640" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2">
+      <c r="A1641" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2">
+      <c r="A1642" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2">
+      <c r="A1643" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2">
+      <c r="A1644" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2">
+      <c r="A1645" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2">
+      <c r="A1646" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2">
+      <c r="A1647" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2">
+      <c r="A1648" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2">
+      <c r="A1649" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2">
+      <c r="A1650" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2">
+      <c r="A1651" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2">
+      <c r="A1652" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2">
+      <c r="A1653" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2">
+      <c r="A1654" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2">
+      <c r="A1655" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2">
+      <c r="A1656" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2">
+      <c r="A1657" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2">
+      <c r="A1658" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2">
+      <c r="A1659" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2">
+      <c r="A1660" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2">
+      <c r="A1661" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2">
+      <c r="A1662" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2">
+      <c r="A1663" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2">
+      <c r="A1664" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2">
+      <c r="A1665" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2">
+      <c r="A1666" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2">
+      <c r="A1667" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2">
+      <c r="A1668" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2">
+      <c r="A1669" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2">
+      <c r="A1670" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2">
+      <c r="A1671" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2">
+      <c r="A1672" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2">
+      <c r="A1673" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2">
+      <c r="A1674" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2">
+      <c r="A1675" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2">
+      <c r="A1676" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2">
+      <c r="A1677" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2">
+      <c r="A1678" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2">
+      <c r="A1679" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2">
+      <c r="A1680" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2">
+      <c r="A1681" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2">
+      <c r="A1682" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2">
+      <c r="A1683" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2">
+      <c r="A1684" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2">
+      <c r="A1685" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2">
+      <c r="A1686" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2">
+      <c r="A1687" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2">
+      <c r="A1688" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="A1689" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2">
+      <c r="A1690" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2">
+      <c r="A1691" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2">
+      <c r="A1692" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="A1693" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2">
+      <c r="A1695" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2">
+      <c r="A1696" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2">
+      <c r="A1697" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2">
+      <c r="A1698" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2">
+      <c r="A1699" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2">
+      <c r="A1700" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2">
+      <c r="A1701" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2">
+      <c r="A1702" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2">
+      <c r="A1703" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2">
+      <c r="A1704" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2">
+      <c r="A1705" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2">
+      <c r="A1706" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2">
+      <c r="A1707" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2">
+      <c r="A1708" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2">
+      <c r="A1709" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2">
+      <c r="A1710" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2">
+      <c r="A1711" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2">
+      <c r="A1712" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2">
+      <c r="A1713" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2">
+      <c r="A1714" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2">
+      <c r="A1715" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2">
+      <c r="A1716" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2">
+      <c r="A1717" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2">
+      <c r="A1718" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2">
+      <c r="A1719" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2">
+      <c r="A1720" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2">
+      <c r="A1721" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2">
+      <c r="A1722" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2">
+      <c r="A1723" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2">
+      <c r="A1724" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2">
+      <c r="A1725" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2">
+      <c r="A1726" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2">
+      <c r="A1727" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2">
+      <c r="A1728" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2">
+      <c r="A1729" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2">
+      <c r="A1730" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2">
+      <c r="A1731" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2">
+      <c r="A1732" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2">
+      <c r="A1733" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2">
+      <c r="A1734" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2">
+      <c r="A1735" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2">
+      <c r="A1736" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2">
+      <c r="A1737" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2">
+      <c r="A1738" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2">
+      <c r="A1739" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2">
+      <c r="A1740" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2">
+      <c r="A1741" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2">
+      <c r="A1742" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2">
+      <c r="A1743" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2">
+      <c r="A1744" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2">
+      <c r="A1745" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2">
+      <c r="A1746" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2">
+      <c r="A1747" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2">
+      <c r="A1748" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2">
+      <c r="A1749" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2">
+      <c r="A1750" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2">
+      <c r="A1751" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2">
+      <c r="A1752" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2">
+      <c r="A1753" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2">
+      <c r="A1754" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2">
+      <c r="A1755" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2">
+      <c r="A1756" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2">
+      <c r="A1757" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2">
+      <c r="A1758" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2">
+      <c r="A1759" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2">
+      <c r="A1760" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2">
+      <c r="A1761" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2">
+      <c r="A1762" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2">
+      <c r="A1763" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2">
+      <c r="A1764" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2">
+      <c r="A1765" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2">
+      <c r="A1766" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2">
+      <c r="A1767" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="A1768" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2">
+      <c r="A1769" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="A1770" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2">
+      <c r="A1771" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2">
+      <c r="A1772" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2">
+      <c r="A1773" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2">
+      <c r="A1774" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2">
+      <c r="A1775" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2">
+      <c r="A1776" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2">
+      <c r="A1777" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2">
+      <c r="A1778" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2">
+      <c r="A1779" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2">
+      <c r="A1780" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2">
+      <c r="A1781" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2">
+      <c r="A1782" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2">
+      <c r="A1783" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2">
+      <c r="A1784" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2">
+      <c r="A1785" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="A1786" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2">
+      <c r="A1787" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="A1788" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2">
+      <c r="A1789" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2">
+      <c r="A1790" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2">
+      <c r="A1791" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2">
+      <c r="A1792" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2">
+      <c r="A1793" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2">
+      <c r="A1794" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2">
+      <c r="A1795" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2">
+      <c r="A1796" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2">
+      <c r="A1797" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2">
+      <c r="A1798" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2">
+      <c r="A1799" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2">
+      <c r="A1800" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2">
+      <c r="A1801" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2">
+      <c r="A1802" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2">
+      <c r="A1803" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2">
+      <c r="A1804" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2">
+      <c r="A1805" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2">
+      <c r="A1806" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2">
+      <c r="A1807" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2">
+      <c r="A1808" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2">
+      <c r="A1809" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2">
+      <c r="A1810" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2">
+      <c r="A1811" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2">
+      <c r="A1812" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2">
+      <c r="A1813" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2">
+      <c r="A1814" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2">
+      <c r="A1815" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2">
+      <c r="A1816" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2">
+      <c r="A1817" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2">
+      <c r="A1818" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2">
+      <c r="A1819" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2">
+      <c r="A1820" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2">
+      <c r="A1821" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2">
+      <c r="A1822" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2">
+      <c r="A1823" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2">
+      <c r="A1824" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="A1825" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2">
+      <c r="A1827" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2">
+      <c r="A1828" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2">
+      <c r="A1829" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2">
+      <c r="A1830" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2">
+      <c r="A1831" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2">
+      <c r="A1832" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="A1833" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="A1834" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2">
+      <c r="A1835" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2">
+      <c r="A1837" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2">
+      <c r="A1842" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2">
+      <c r="A1844" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2">
+      <c r="A1848" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2">
+      <c r="A1870" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="A1871" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2">
+      <c r="A1872" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2">
+      <c r="A1874" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2">
+      <c r="A1875" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2">
+      <c r="A1878" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2">
+      <c r="A1879" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="A1880" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="A1882" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="A1883" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2">
+      <c r="A1884" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2">
+      <c r="A1885" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2">
+      <c r="A1887" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2">
+      <c r="A1888" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="A1889" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="A1890" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="A1891" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2">
+      <c r="A1892" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2">
+      <c r="A1893" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2">
+      <c r="A1894" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2">
+      <c r="A1895" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2">
+      <c r="A1896" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2">
+      <c r="A1897" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2">
+      <c r="A1898" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2">
+      <c r="A1899" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="A1900" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="A1901" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="A1902" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="A1903" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2">
+      <c r="A1905" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2">
+      <c r="A1906" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2">
+      <c r="A1907" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2">
+      <c r="A1908" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2">
+      <c r="A1909" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="A1910" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2">
+      <c r="A1911" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2">
+      <c r="A1912" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2">
+      <c r="A1913" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2">
+      <c r="A1914" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2">
+      <c r="A1915" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2">
+      <c r="A1916" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2">
+      <c r="A1917" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2">
+      <c r="A1918" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2">
+      <c r="A1919" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2">
+      <c r="A1920" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2">
+      <c r="A1921" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2">
+      <c r="A1922" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2">
+      <c r="A1923" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2">
+      <c r="A1924" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2">
+      <c r="A1925" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2">
+      <c r="A1926" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2">
+      <c r="A1927" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2">
+      <c r="A1928" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2">
+      <c r="A1929" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2">
+      <c r="A1930" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2">
+      <c r="A1931" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2">
+      <c r="A1932" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2">
+      <c r="A1933" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2">
+      <c r="A1934" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="A1935" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2">
+      <c r="A1936" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2">
+      <c r="A1944" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2">
+      <c r="A1945" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2">
+      <c r="A1946" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="A1947" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="A1948" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="A1949" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2">
+      <c r="A1950" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2">
+      <c r="A1951" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2">
+      <c r="A1952" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
